--- a/Data/KravSpecifikationer.xlsx
+++ b/Data/KravSpecifikationer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drage\source\repos\ApprenticeTest\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC1E4630-F180-462C-B150-246DDE0E9C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82A3F87-68A1-4EA9-8628-931EA65F0E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{040B1F35-3165-42A1-998F-8B6B05D0A6DD}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{040B1F35-3165-42A1-998F-8B6B05D0A6DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -981,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21638914-7399-4E98-8EB4-7F39ADF6EC4E}">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,7 +1383,7 @@
         <v>50</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1417,7 +1417,7 @@
         <v>54</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
@@ -1451,7 +1451,7 @@
         <v>58</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
@@ -1485,7 +1485,7 @@
         <v>62</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
